--- a/filedownload/template_data.xlsx
+++ b/filedownload/template_data.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,9 +468,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I3557">
-    <sortCondition ref="H2:H3557"/>
-    <sortCondition ref="G2:G3557"/>
+  <sortState ref="A2:I3840">
+    <sortCondition ref="H2:H3840"/>
+    <sortCondition ref="G2:G3840"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filedownload/template_data.xlsx
+++ b/filedownload/template_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -51,13 +51,19 @@
   </si>
   <si>
     <t>CP_NAME</t>
+  </si>
+  <si>
+    <t>SUBSTYPE</t>
+  </si>
+  <si>
+    <t>TRX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +75,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -98,13 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +451,7 @@
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +478,12 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
